--- a/data/tabular/csv/CHIELD_links.xlsx
+++ b/data/tabular/csv/CHIELD_links.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Library/WebServer/Documents/LED/offline/data/coding/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sgroberts/Documents/Bristol/CHIELD/CHIELD_Online/data/tabular/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="429">
   <si>
     <t>ackley94altruismIn</t>
   </si>
@@ -1095,33 +1095,6 @@
   </si>
   <si>
     <t>evolang11_26</t>
-  </si>
-  <si>
-    <t>evolang11_27</t>
-  </si>
-  <si>
-    <t>evolang11_28</t>
-  </si>
-  <si>
-    <t>evolang11_29</t>
-  </si>
-  <si>
-    <t>evolang11_30</t>
-  </si>
-  <si>
-    <t>evolang11_31</t>
-  </si>
-  <si>
-    <t>evolang11_32</t>
-  </si>
-  <si>
-    <t>evolang11_33</t>
-  </si>
-  <si>
-    <t>evolang11_34</t>
-  </si>
-  <si>
-    <t>evolang11_35</t>
   </si>
   <si>
     <t>vocal tract morphology</t>
@@ -1688,11 +1661,11 @@
   <dimension ref="A1:S288"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="600" ySplit="980" activePane="bottomLeft"/>
+      <pane xSplit="600" ySplit="980" topLeftCell="A224" activePane="bottomRight"/>
       <selection activeCell="E95" sqref="E95"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="B267" sqref="A267:XFD273"/>
-      <selection pane="bottomRight" activeCell="B295" sqref="B295"/>
+      <selection pane="bottomRight" activeCell="B237" sqref="B237:B246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1762,7 +1735,7 @@
         <v>77</v>
       </c>
       <c r="S1" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -2014,7 +1987,7 @@
         <v>36</v>
       </c>
       <c r="J10" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -2040,7 +2013,7 @@
         <v>8</v>
       </c>
       <c r="J11" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="N11" t="s">
         <v>24</v>
@@ -2069,7 +2042,7 @@
         <v>8</v>
       </c>
       <c r="J12" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="N12" t="s">
         <v>24</v>
@@ -2098,7 +2071,7 @@
         <v>8</v>
       </c>
       <c r="J13" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="N13" t="s">
         <v>24</v>
@@ -3479,7 +3452,7 @@
         <v>8</v>
       </c>
       <c r="J64" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="65" spans="2:18" ht="17" x14ac:dyDescent="0.25">
@@ -3508,7 +3481,7 @@
         <v>8</v>
       </c>
       <c r="J65" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="66" spans="2:18" ht="17" x14ac:dyDescent="0.25">
@@ -3537,7 +3510,7 @@
         <v>8</v>
       </c>
       <c r="J66" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67" spans="2:18" ht="17" x14ac:dyDescent="0.25">
@@ -3566,7 +3539,7 @@
         <v>8</v>
       </c>
       <c r="J67" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68" spans="2:18" ht="17" x14ac:dyDescent="0.25">
@@ -3595,7 +3568,7 @@
         <v>8</v>
       </c>
       <c r="J68" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="69" spans="2:18" ht="17" x14ac:dyDescent="0.25">
@@ -3624,7 +3597,7 @@
         <v>8</v>
       </c>
       <c r="J69" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="70" spans="2:18" ht="17" x14ac:dyDescent="0.25">
@@ -4155,7 +4128,7 @@
         <v>13</v>
       </c>
       <c r="E88" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
@@ -4167,10 +4140,10 @@
         <v>29</v>
       </c>
       <c r="J88" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="S88" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="89" spans="2:19" ht="17" x14ac:dyDescent="0.25">
@@ -4178,7 +4151,7 @@
         <v>180</v>
       </c>
       <c r="C89" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D89" t="s">
         <v>13</v>
@@ -4205,7 +4178,7 @@
         <v>24</v>
       </c>
       <c r="R89" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="90" spans="2:19" ht="17" x14ac:dyDescent="0.25">
@@ -4219,7 +4192,7 @@
         <v>13</v>
       </c>
       <c r="E90" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="F90" t="s">
         <v>17</v>
@@ -4231,7 +4204,7 @@
         <v>29</v>
       </c>
       <c r="J90" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="92" spans="2:19" ht="17" x14ac:dyDescent="0.25">
@@ -4239,13 +4212,13 @@
         <v>180</v>
       </c>
       <c r="C92" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D92" t="s">
         <v>13</v>
       </c>
       <c r="E92" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="F92" t="s">
         <v>17</v>
@@ -4262,7 +4235,7 @@
         <v>180</v>
       </c>
       <c r="C93" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D93" t="s">
         <v>13</v>
@@ -4289,7 +4262,7 @@
         <v>31</v>
       </c>
       <c r="R93" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="94" spans="2:19" ht="17" x14ac:dyDescent="0.25">
@@ -4332,7 +4305,7 @@
         <v>13</v>
       </c>
       <c r="E95" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="F95" t="s">
         <v>17</v>
@@ -4353,7 +4326,7 @@
         <v>24</v>
       </c>
       <c r="R95" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="96" spans="2:19" ht="17" x14ac:dyDescent="0.25">
@@ -6772,7 +6745,7 @@
         <v>13</v>
       </c>
       <c r="E183" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F183" t="s">
         <v>19</v>
@@ -6792,7 +6765,7 @@
         <v>13</v>
       </c>
       <c r="E184" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F184" t="s">
         <v>17</v>
@@ -6823,7 +6796,7 @@
         <v>307</v>
       </c>
       <c r="C186" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D186" t="s">
         <v>13</v>
@@ -8016,7 +7989,7 @@
     </row>
     <row r="238" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C238" t="s">
         <v>336</v>
@@ -8042,7 +8015,7 @@
     </row>
     <row r="239" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C239" t="s">
         <v>337</v>
@@ -8060,7 +8033,7 @@
         <v>82</v>
       </c>
       <c r="J239" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="R239" t="s">
         <v>345</v>
@@ -8068,7 +8041,7 @@
     </row>
     <row r="240" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C240" t="s">
         <v>336</v>
@@ -8094,7 +8067,7 @@
     </row>
     <row r="241" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C241" t="s">
         <v>337</v>
@@ -8120,7 +8093,7 @@
     </row>
     <row r="242" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C242" t="s">
         <v>337</v>
@@ -8143,7 +8116,7 @@
     </row>
     <row r="243" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C243" t="s">
         <v>340</v>
@@ -8166,7 +8139,7 @@
     </row>
     <row r="244" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C244" t="s">
         <v>343</v>
@@ -8189,7 +8162,7 @@
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C245" t="s">
         <v>346</v>
@@ -8212,7 +8185,7 @@
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C246" t="s">
         <v>351</v>
@@ -8229,10 +8202,10 @@
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C248" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D248" t="s">
         <v>13</v>
@@ -8250,15 +8223,15 @@
         <v>182</v>
       </c>
       <c r="K248" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="R248" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="249" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C249" t="s">
         <v>46</v>
@@ -8267,7 +8240,7 @@
         <v>13</v>
       </c>
       <c r="E249" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="H249" t="s">
         <v>56</v>
@@ -8279,18 +8252,18 @@
         <v>182</v>
       </c>
       <c r="K249" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="N249" t="s">
         <v>31</v>
       </c>
       <c r="R249" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="250" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C250" t="s">
         <v>46</v>
@@ -8299,7 +8272,7 @@
         <v>13</v>
       </c>
       <c r="E250" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="H250" t="s">
         <v>56</v>
@@ -8311,15 +8284,15 @@
         <v>182</v>
       </c>
       <c r="K250" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="R250" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="251" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C251" t="s">
         <v>39</v>
@@ -8328,7 +8301,7 @@
         <v>13</v>
       </c>
       <c r="E251" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="H251" t="s">
         <v>56</v>
@@ -8340,21 +8313,21 @@
         <v>182</v>
       </c>
       <c r="K251" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="252" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C252" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D252" t="s">
         <v>13</v>
       </c>
       <c r="E252" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H252" t="s">
         <v>56</v>
@@ -8371,21 +8344,21 @@
         <v>118</v>
       </c>
       <c r="B253" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="257" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C257" t="s">
         <v>149</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="E257" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F257" t="s">
         <v>17</v>
@@ -8400,12 +8373,12 @@
         <v>30</v>
       </c>
       <c r="K257" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="258" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C258" t="s">
         <v>177</v>
@@ -8420,7 +8393,7 @@
         <v>19</v>
       </c>
       <c r="G258" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="H258" t="s">
         <v>181</v>
@@ -8432,15 +8405,15 @@
         <v>30</v>
       </c>
       <c r="K258" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="R258" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="259" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C259" t="s">
         <v>88</v>
@@ -8454,7 +8427,7 @@
     </row>
     <row r="260" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C260" t="s">
         <v>177</v>
@@ -8463,7 +8436,7 @@
         <v>13</v>
       </c>
       <c r="E260" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="F260" t="s">
         <v>17</v>
@@ -8475,24 +8448,24 @@
         <v>29</v>
       </c>
       <c r="J260" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="R260" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="261" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C261" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="D261" t="s">
         <v>13</v>
       </c>
       <c r="E261" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="F261" t="s">
         <v>19</v>
@@ -8504,18 +8477,18 @@
         <v>29</v>
       </c>
       <c r="J261" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="R261" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="262" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C262" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D262" t="s">
         <v>13</v>
@@ -8527,7 +8500,7 @@
         <v>17</v>
       </c>
       <c r="G262" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="H262" t="s">
         <v>181</v>
@@ -8542,12 +8515,12 @@
         <v>188</v>
       </c>
       <c r="O262" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="263" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C263" t="s">
         <v>149</v>
@@ -8556,7 +8529,7 @@
         <v>13</v>
       </c>
       <c r="E263" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F263" t="s">
         <v>19</v>
@@ -8574,18 +8547,18 @@
         <v>188</v>
       </c>
       <c r="O263" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="R263" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="264" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C264" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D264" t="s">
         <v>13</v>
@@ -8597,7 +8570,7 @@
         <v>17</v>
       </c>
       <c r="G264" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="H264" t="s">
         <v>181</v>
@@ -8612,21 +8585,21 @@
         <v>252</v>
       </c>
       <c r="R264" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="265" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B265" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C265" t="s">
         <v>149</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="E265" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F265" t="s">
         <v>17</v>
@@ -8644,12 +8617,12 @@
         <v>188</v>
       </c>
       <c r="R265" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="267" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C267" t="s">
         <v>88</v>
@@ -8664,7 +8637,7 @@
         <v>17</v>
       </c>
       <c r="G267" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="H267" t="s">
         <v>181</v>
@@ -8676,21 +8649,21 @@
         <v>30</v>
       </c>
       <c r="K267" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="O267" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="R267" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="S267" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="268" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C268" t="s">
         <v>88</v>
@@ -8705,7 +8678,7 @@
         <v>17</v>
       </c>
       <c r="G268" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="H268" t="s">
         <v>181</v>
@@ -8717,18 +8690,18 @@
         <v>30</v>
       </c>
       <c r="K268" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="O268" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="R268" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="269" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C269" t="s">
         <v>177</v>
@@ -8737,13 +8710,13 @@
         <v>13</v>
       </c>
       <c r="E269" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F269" t="s">
         <v>17</v>
       </c>
       <c r="G269" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="H269" t="s">
         <v>181</v>
@@ -8755,15 +8728,15 @@
         <v>106</v>
       </c>
       <c r="R269" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="270" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C270" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D270" t="s">
         <v>13</v>
@@ -8775,7 +8748,7 @@
         <v>19</v>
       </c>
       <c r="G270" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="H270" t="s">
         <v>181</v>
@@ -8787,18 +8760,18 @@
         <v>30</v>
       </c>
       <c r="K270" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="O270" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="R270" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="271" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B271" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C271" t="s">
         <v>191</v>
@@ -8807,13 +8780,13 @@
         <v>13</v>
       </c>
       <c r="E271" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F271" t="s">
         <v>17</v>
       </c>
       <c r="G271" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="H271" t="s">
         <v>181</v>
@@ -8825,27 +8798,27 @@
         <v>30</v>
       </c>
       <c r="K271" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="O271" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="R271" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="272" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C272" t="s">
         <v>191</v>
       </c>
       <c r="D272" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="E272" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="F272" t="s">
         <v>17</v>
@@ -8860,27 +8833,27 @@
         <v>30</v>
       </c>
       <c r="K272" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="O272" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="R272" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="273" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B273" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C273" t="s">
         <v>191</v>
       </c>
       <c r="D273" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="E273" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="F273" t="s">
         <v>17</v>
@@ -8895,21 +8868,21 @@
         <v>30</v>
       </c>
       <c r="K273" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="O273" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="R273" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="275" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C275" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D275" t="s">
         <v>13</v>
@@ -8936,18 +8909,18 @@
         <v>31</v>
       </c>
       <c r="R275" t="s">
+        <v>411</v>
+      </c>
+      <c r="S275" t="s">
         <v>420</v>
-      </c>
-      <c r="S275" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="276" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B276" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C276" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D276" t="s">
         <v>13</v>
@@ -8974,41 +8947,41 @@
         <v>24</v>
       </c>
       <c r="R276" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="280" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B280" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C280" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="D280" t="s">
         <v>13</v>
       </c>
       <c r="E280" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="J280" t="s">
         <v>106</v>
       </c>
       <c r="R280" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="281" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B281" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C281" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D281" t="s">
         <v>13</v>
       </c>
       <c r="E281" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="J281" t="s">
         <v>182</v>
@@ -9017,21 +8990,21 @@
         <v>183</v>
       </c>
       <c r="R281" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="283" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B283" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C283" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D283" t="s">
         <v>13</v>
       </c>
       <c r="E283" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F283" t="s">
         <v>17</v>
@@ -9045,16 +9018,16 @@
     </row>
     <row r="284" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B284" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C284" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D284" t="s">
         <v>13</v>
       </c>
       <c r="E284" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="F284" t="s">
         <v>17</v>
@@ -9068,16 +9041,16 @@
     </row>
     <row r="285" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B285" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C285" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="D285" t="s">
         <v>13</v>
       </c>
       <c r="E285" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="F285" t="s">
         <v>17</v>
@@ -9091,16 +9064,16 @@
     </row>
     <row r="286" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B286" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C286" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D286" t="s">
         <v>13</v>
       </c>
       <c r="E286" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="F286" t="s">
         <v>17</v>
@@ -9114,16 +9087,16 @@
     </row>
     <row r="287" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C287" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D287" t="s">
         <v>13</v>
       </c>
       <c r="E287" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="F287" t="s">
         <v>17</v>
@@ -9135,21 +9108,21 @@
         <v>11</v>
       </c>
       <c r="K287" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="288" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B288" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C288" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="D288" t="s">
         <v>13</v>
       </c>
       <c r="E288" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="F288" t="s">
         <v>19</v>
@@ -9161,7 +9134,7 @@
         <v>30</v>
       </c>
       <c r="K288" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
